--- a/Data/Service.xlsx
+++ b/Data/Service.xlsx
@@ -566,7 +566,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="10" width="8.71"/>
+    <col customWidth="1" min="1" max="9" width="8.71"/>
+    <col customWidth="1" min="10" max="10" width="23.29"/>
     <col customWidth="1" min="11" max="11" width="14.29"/>
     <col customWidth="1" min="12" max="12" width="21.0"/>
     <col customWidth="1" min="13" max="13" width="30.71"/>
